--- a/biology/Histoire de la zoologie et de la botanique/Lounsb/Lounsb..xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Lounsb/Lounsb..xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Alice Lounsberry (6 novembre 1873 - 21 novembre 1949) est une botaniste et une autrice américaine active aux États-Unis à la fin du XIXe siècle et au début du XXe siècle. Elle a travaillé en étroite collaboration avec l'artiste botaniste australienne Ellis Rowan, publiant trois livres avec elle comme illustratrice.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Alice Lounsberry est la fille de James Smith Alice Lounsberry et de Sarah Woodruff (Burrows) Alice Lounsberry. Elle fait ses études à l'école de Sylvanus Reed, à New York. Alice Lounsberry vient rendre visite à Ellis Rowan lorsque ce dernier était hospitalisé pour une grippe à Washington, D.C., vers 1896-1897. Alice Lounsberry propose alors à l'artiste d'illustrer son futur livre sur les fleurs sauvages. Rowan accepte, mais change ses plans pour retourner en Europe.
 Sur une période de deux ans ou plus, ils parcourent le sud-est des États-Unis à la recherche de plantes indigènes. La première année, ils se rendent en Floride, explorant notamment la rivière St. Johns. Ils visitent ensuite la région des Appalaches du Sud, notamment Roan Mountain, au Tennessee, et Grandfather Mountain, en Caroline du Nord. L'année suivante, ils retournent dans cette région, travaillant à l'herbier du Biltmore Estate à Asheville, en Caroline du Nord. C'est probablement là qu'Alice Lounsberry fait la connaissance de Chauncey Beadle. Selon Samuel, c'est à Asheville que Rowan reçoit la nouvelle que son fils Eric (appelé "Puck") a été tué en Afrique. Cela aurait eu lieu dans la période 1899-1900, vraisemblablement pendant la deuxième guerre des Boers (1899-1902).
@@ -523,7 +537,7 @@
 The Wildflower Book for Young People (1906). New York : Frederick A. Stokes Company. (Article paru dans le numéro du 26 mars 1908 de The Nation).
 Gardens Near the Sea (1910). New York : Frederick A. Stokes Company. (Article paru dans le numéro du 8 décembre 1910 de The Nation).
 Frank and Bessie's Forester (1912). New York : Frederick A. Stokes Company.
-En outre, une Alice Lounsberry, apparemment la même personne que le botaniste, est l'autrice d'une biographie historique : Sir William Phips, Treasure Fisherman and Governor of the Massachusetts Bay Colony (1941), publiée à New York par C. Scribner's and sons. Le Dictionnaire biographique du Canada qualifie cet ouvrage de « curieux mélange de recherche et d'imagination, en grande partie non critique »[1].
+En outre, une Alice Lounsberry, apparemment la même personne que le botaniste, est l'autrice d'une biographie historique : Sir William Phips, Treasure Fisherman and Governor of the Massachusetts Bay Colony (1941), publiée à New York par C. Scribner's and sons. Le Dictionnaire biographique du Canada qualifie cet ouvrage de « curieux mélange de recherche et d'imagination, en grande partie non critique ».
 </t>
         </is>
       </c>
